--- a/data/trans_orig/cron_prev_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Habitat-trans_orig.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,64</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,75</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,61</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,86</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,79</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,6</t>
+          <t>0,38; 0,5</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,35; 0,64</t>
+          <t>0,5; 0,64</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,76</t>
+          <t>0,48; 0,63</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 0,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,43; 0,76</t>
+          <t>0,57; 0,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,98</t>
+          <t>0,67; 0,83</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 0,83</t>
+          <t>0,62; 0,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 0,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,61</t>
+          <t>0,49; 0,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,75</t>
+          <t>0,6; 0,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,48; 0,73</t>
+          <t>0,57; 0,68</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,69; 0,85</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,44</t>
+          <t>0,47</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>0,52</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>0,69</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>0,74</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
           <t>0,58</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,75</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,61</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,5</t>
+          <t>0,42; 0,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,67</t>
+          <t>0,46; 0,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,47; 0,63</t>
+          <t>0,46; 0,57</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 0,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,73</t>
+          <t>0,62; 0,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,65; 0,84</t>
+          <t>0,62; 0,76</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,64; 0,83</t>
+          <t>0,62; 0,75</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 0,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,6</t>
+          <t>0,54; 0,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,72</t>
+          <t>0,56; 0,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0,58; 0,71</t>
+          <t>0,56; 0,64</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,41; 0,7</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,48</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,52</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,68</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,55</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,96</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,53</t>
+          <t>0,37; 0,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,59</t>
+          <t>0,42; 0,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,57</t>
+          <t>0,44; 0,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,63; 0,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,76</t>
+          <t>0,59; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,76</t>
+          <t>0,55; 0,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,75</t>
+          <t>0,55; 0,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,62; 2,03</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,62</t>
+          <t>0,5; 0,6</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,65</t>
+          <t>0,51; 0,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,64</t>
+          <t>0,51; 0,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,65; 1,67</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,48</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,17 +1091,17 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,67</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>0,62</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,63</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,27 +1111,27 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,55</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>0,56</t>
         </is>
       </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>0,56</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,78</t>
         </is>
       </c>
     </row>
@@ -1144,69 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,49</t>
+          <t>0,4; 0,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,56</t>
+          <t>0,5; 0,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,58</t>
+          <t>0,46; 0,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,61; 0,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,74</t>
+          <t>0,56; 0,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,7</t>
+          <t>0,69; 0,83</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,7</t>
+          <t>0,56; 0,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,81; 0,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,6</t>
+          <t>0,5; 0,58</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,61</t>
+          <t>0,62; 0,72</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,62</t>
+          <t>0,52; 0,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,74; 0,83</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,51</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,63</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,65</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>0,55</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
           <t>0,62</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>0,67</t>
-        </is>
-      </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
     </row>
@@ -1284,214 +1284,74 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,51</t>
+          <t>0,42; 0,48</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,64</t>
+          <t>0,5; 0,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,56</t>
+          <t>0,49; 0,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,49; 0,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,68</t>
+          <t>0,62; 0,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,83</t>
+          <t>0,67; 0,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,68</t>
+          <t>0,62; 0,69</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,77; 1,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,58</t>
+          <t>0,53; 0,58</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,72</t>
+          <t>0,6; 0,65</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,61</t>
+          <t>0,57; 0,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,68; 0,98</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Media</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,45</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,54</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,52</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>0,71</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>0,65</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>0,55</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>0,62</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>0,42; 0,48</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>0,5; 0,57</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>0,49; 0,55</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,69</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 0,74</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,69</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>0,53; 0,58</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>0,6; 0,65</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>0,57; 0,61</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1501,7 +1361,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/cron_prev_index-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/cron_prev_index-Habitat-trans_orig.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 0,5</t>
+          <t>0,38; 0,49</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -739,27 +739,27 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,8</t>
+          <t>0,64; 0,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,71</t>
+          <t>0,57; 0,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,83</t>
+          <t>0,67; 0,84</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,62; 0,8</t>
+          <t>0,63; 0,8</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,69; 0,95</t>
+          <t>0,67; 0,96</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,12 +769,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0,6; 0,72</t>
+          <t>0,6; 0,71</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,68</t>
+          <t>0,58; 0,69</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,7 +864,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,53</t>
+          <t>0,43; 0,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -874,29 +874,29 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,57</t>
+          <t>0,47; 0,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 0,66</t>
+          <t>0,28; 0,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>0,62; 0,75</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>0,62; 0,76</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>0,62; 0,76</t>
         </is>
       </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>0,62; 0,75</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
           <t>0,68; 0,8</t>
@@ -904,22 +904,22 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0,54; 0,62</t>
+          <t>0,54; 0,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
+          <t>0,56; 0,66</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
           <t>0,56; 0,65</t>
         </is>
       </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>0,56; 0,64</t>
-        </is>
-      </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0,41; 0,7</t>
+          <t>0,4; 0,7</t>
         </is>
       </c>
     </row>
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,37; 0,49</t>
+          <t>0,38; 0,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,42; 0,56</t>
+          <t>0,42; 0,55</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,44; 0,58</t>
+          <t>0,44; 0,57</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,27 +1024,27 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,59; 0,74</t>
+          <t>0,58; 0,74</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,7</t>
+          <t>0,56; 0,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,55; 0,7</t>
+          <t>0,54; 0,7</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0,62; 2,03</t>
+          <t>0,62; 1,98</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,6</t>
+          <t>0,5; 0,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0,51; 0,62</t>
+          <t>0,52; 0,62</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0,65; 1,67</t>
+          <t>0,66; 1,65</t>
         </is>
       </c>
     </row>
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,4; 0,51</t>
+          <t>0,41; 0,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,5; 0,64</t>
+          <t>0,51; 0,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,46; 0,56</t>
+          <t>0,45; 0,56</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,68</t>
+          <t>0,57; 0,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1174,7 +1174,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0,56; 0,68</t>
+          <t>0,55; 0,68</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1194,12 +1194,12 @@
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 0,61</t>
+          <t>0,53; 0,61</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0,74; 0,83</t>
+          <t>0,73; 0,83</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,49; 0,69</t>
+          <t>0,5; 0,69</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1309,7 +1309,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,67; 0,74</t>
+          <t>0,67; 0,75</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,12 +1319,12 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,77; 1,27</t>
+          <t>0,77; 1,3</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0,53; 0,58</t>
+          <t>0,53; 0,57</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0,57; 0,61</t>
+          <t>0,56; 0,61</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0,68; 0,98</t>
+          <t>0,68; 1,0</t>
         </is>
       </c>
     </row>
